--- a/data/Lecture 7a/amesShelters.xlsx
+++ b/data/Lecture 7a/amesShelters.xlsx
@@ -5,15 +5,15 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger_1/Downloads/Lecture 7a/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cjseeger_1/Library/CloudStorage/Box-Box/cjseeger Docs/Teaching/2025/LA-5580-Spring-2025/data/Lecture 7a/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9780C641-4D03-D543-A0C6-05F7857B0589}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F4D0DD-697B-9A47-88DF-AFBDC555EF31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="4280" windowWidth="28040" windowHeight="17440" xr2:uid="{8306A92E-8C35-E14E-BCB1-171E41341256}"/>
+    <workbookView xWindow="53180" yWindow="3620" windowWidth="28040" windowHeight="17440" xr2:uid="{8306A92E-8C35-E14E-BCB1-171E41341256}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="shelter_loc" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -60,12 +60,19 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -89,8 +96,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -428,19 +436,19 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
